--- a/queries_output.xlsx
+++ b/queries_output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Desktop\cornershop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6AB8E848-AD97-4F92-8A15-9763D169DF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D26D8-6364-4AAA-B831-36959286ECC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q3" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="3" r:id="rId1"/>
+    <sheet name="Q2" sheetId="2" r:id="rId2"/>
+    <sheet name="Q3" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>dow</t>
   </si>
@@ -35,12 +37,72 @@
   </si>
   <si>
     <t>UN</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>0b0d1b4d525596dc61c3fde64a6bf099</t>
+  </si>
+  <si>
+    <t>a3bed30221372366bcd9b9779f395d0b</t>
+  </si>
+  <si>
+    <t>1174a0029cadfa449af46c53b1c90fbe</t>
+  </si>
+  <si>
+    <t>7a44728dc60bafc53140a9f5ef7e4e75</t>
+  </si>
+  <si>
+    <t>c0b93cf93cf854981b8d6bd849eec4b0</t>
+  </si>
+  <si>
+    <t>6447951cd071f6f045fd4e6194920926</t>
+  </si>
+  <si>
+    <t>0fae7b61265bc7ca4ce4d81440b62501</t>
+  </si>
+  <si>
+    <t>044d56734d20e04984d846dade6d39f3</t>
+  </si>
+  <si>
+    <t>821dc9d74061fe7654b9ec20e574022d</t>
+  </si>
+  <si>
+    <t>451eb58b96f0a36f31d2beebd1c9a7a8</t>
+  </si>
+  <si>
+    <t>60e4c4e1c1a8bc79123738227b9d0b08</t>
+  </si>
+  <si>
+    <t>452ae015bf846e1d2932b7ea15720d64</t>
+  </si>
+  <si>
+    <t>387d4a5b65cf4bf00ad805c4b00eed01</t>
+  </si>
+  <si>
+    <t>a08814af6c2379a480e261b3598ddbd5</t>
+  </si>
+  <si>
+    <t>e27789d5e619b255663b2bfa68b5851f</t>
+  </si>
+  <si>
+    <t>6dd84f26df649bead537d40ec49afd36</t>
+  </si>
+  <si>
+    <t>9d65282d498c0338377867996e761399</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,11 +936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EE5C61-A20D-41CA-B49F-F715B92893C0}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +950,277 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5043</v>
+      </c>
+      <c r="C2">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5907</v>
+      </c>
+      <c r="C3">
+        <v>15299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7333</v>
+      </c>
+      <c r="C4">
+        <v>21604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5608</v>
+      </c>
+      <c r="C5">
+        <v>15104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6103</v>
+      </c>
+      <c r="C6">
+        <v>12738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3023</v>
+      </c>
+      <c r="C7">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3492</v>
+      </c>
+      <c r="C8">
+        <v>5524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AC3BDE-3115-433E-838D-D76E2947F21B}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.71214285714285697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.99349655172413798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1.1074534161490699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1.2010883812161099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1.32566739130435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1.3314102564102599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1.45244218456962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1.4546954561617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1.4553566695694899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1.5398175556086999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1.6062857142857101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1.85173501577287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1.9829351535836199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2.5592592592592598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">

--- a/queries_output.xlsx
+++ b/queries_output.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nestor\Desktop\cornershop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D26D8-6364-4AAA-B831-36959286ECC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86370F-F0EC-4532-8952-99980948C287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="3" r:id="rId1"/>
     <sheet name="Q2" sheetId="2" r:id="rId2"/>
     <sheet name="Q3" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>dow</t>
   </si>
@@ -97,6 +105,12 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -536,7 +550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -579,11 +593,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -619,6 +635,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -937,15 +954,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EE5C61-A20D-41CA-B49F-F715B92893C0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,8 +972,14 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -966,8 +989,16 @@
       <c r="C2">
         <v>7691</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>12734</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2/D2</f>
+        <v>0.39602638605308621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -977,8 +1008,16 @@
       <c r="C3">
         <v>15299</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">B3+C3</f>
+        <v>21206</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" si="1">B3/D3</f>
+        <v>0.2785532396491559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -988,8 +1027,16 @@
       <c r="C4">
         <v>21604</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>28937</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25341258596260841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -999,8 +1046,16 @@
       <c r="C5">
         <v>15104</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>20712</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27076091154886056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1010,8 +1065,16 @@
       <c r="C6">
         <v>12738</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>18841</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32392123560320579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1021,8 +1084,16 @@
       <c r="C7">
         <v>6407</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9430</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3205726405090138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1031,6 +1102,14 @@
       </c>
       <c r="C8">
         <v>5524</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9016</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38731144631765752</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AC3BDE-3115-433E-838D-D76E2947F21B}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
